--- a/docs/StructureDefinition-VA.MHV.bloodSugarB.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarB.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="528">
   <si>
     <t>Path</t>
   </si>
@@ -736,6 +736,106 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>loincCode1</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="2339-0"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>loincCode2</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="2345-7"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>fasting</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="1556-0"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>afterMeal</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="6689-4"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -846,9 +946,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1735,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4611,7 +4708,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
@@ -4623,23 +4720,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4687,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4699,22 +4792,22 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4722,18 +4815,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4742,19 +4835,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4792,19 +4885,19 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4816,7 +4909,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4825,13 +4918,13 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4839,18 +4932,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4862,19 +4955,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4911,25 +5004,23 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4938,19 +5029,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4958,11 +5049,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C28" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4981,19 +5074,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5003,7 +5096,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>45</v>
@@ -5030,23 +5123,25 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -5055,19 +5150,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5075,13 +5170,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5100,19 +5195,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5122,7 +5217,7 @@
         <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>45</v>
@@ -5161,13 +5256,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5176,19 +5271,19 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5196,18 +5291,20 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5219,18 +5316,20 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5239,7 +5338,7 @@
         <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>45</v>
@@ -5278,13 +5377,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5299,13 +5398,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5313,18 +5412,20 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5336,17 +5437,19 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5356,7 +5459,7 @@
         <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>45</v>
@@ -5395,7 +5498,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5410,19 +5513,19 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5430,7 +5533,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5453,19 +5556,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5502,17 +5605,19 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5521,7 +5626,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5530,34 +5635,32 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>55</v>
@@ -5572,19 +5675,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5633,7 +5736,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5642,33 +5745,33 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5679,7 +5782,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5688,18 +5791,20 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5748,19 +5853,19 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5769,13 +5874,13 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5783,18 +5888,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5803,21 +5908,23 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5853,46 +5960,46 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5900,15 +6007,15 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>55</v>
@@ -5923,19 +6030,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5972,19 +6079,17 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5999,19 +6104,19 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6019,15 +6124,17 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
@@ -6036,30 +6143,30 @@
         <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6079,13 +6186,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6103,7 +6210,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6118,19 +6225,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6138,7 +6245,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6149,7 +6256,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6161,18 +6268,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6181,7 +6288,7 @@
         <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>45</v>
@@ -6220,7 +6327,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6241,13 +6348,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6255,7 +6362,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6266,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6278,17 +6385,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6337,34 +6444,34 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6372,7 +6479,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6395,19 +6502,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6444,19 +6551,17 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6465,7 +6570,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6474,26 +6579,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6502,7 +6609,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6511,22 +6618,22 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6551,13 +6658,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6575,7 +6682,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6584,7 +6691,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6593,35 +6700,35 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>155</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6633,20 +6740,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6670,13 +6773,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6694,53 +6797,53 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6752,20 +6855,18 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6801,19 +6902,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6825,7 +6926,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6834,10 +6935,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>72</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6848,7 +6949,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6859,7 +6960,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6868,21 +6969,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6906,13 +7009,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6930,7 +7033,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6948,24 +7051,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6982,30 +7085,30 @@
         <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>45</v>
       </c>
@@ -7027,9 +7130,11 @@
       <c r="W45" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X45" s="2"/>
+      <c r="X45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7047,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7068,10 +7173,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7082,7 +7187,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7093,7 +7198,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7102,21 +7207,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>388</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7125,7 +7230,7 @@
         <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>45</v>
@@ -7164,7 +7269,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7182,24 +7287,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7210,7 +7315,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7219,21 +7324,21 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7281,7 +7386,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7290,7 +7395,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7299,24 +7404,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7327,7 +7432,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7336,22 +7441,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7400,19 +7505,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>411</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7421,10 +7526,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7435,7 +7540,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7446,7 +7551,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7458,16 +7563,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7491,13 +7600,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7515,7 +7624,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7524,10 +7633,10 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7536,10 +7645,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7550,18 +7659,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7573,18 +7682,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7608,13 +7719,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7632,7 +7743,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7644,65 +7755,65 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7751,7 +7862,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7763,7 +7874,7 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7772,10 +7883,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>155</v>
+        <v>396</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7786,7 +7897,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7797,7 +7908,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7809,15 +7920,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7842,13 +7955,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7866,7 +7979,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7875,7 +7988,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7884,24 +7997,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7924,16 +8037,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7957,13 +8074,11 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7981,7 +8096,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7990,7 +8105,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -8002,10 +8117,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8016,7 +8131,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8027,7 +8142,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8039,20 +8154,18 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8076,13 +8189,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>438</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8100,7 +8213,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8118,24 +8231,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8146,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8158,20 +8271,18 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8195,13 +8306,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>447</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8219,13 +8330,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8237,24 +8348,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8265,7 +8376,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8277,17 +8388,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8336,19 +8449,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>439</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8357,10 +8470,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8371,7 +8484,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8397,10 +8510,10 @@
         <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>70</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8451,7 +8564,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>71</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8463,7 +8576,7 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8472,10 +8585,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>72</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8486,18 +8599,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8506,19 +8619,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8568,7 +8681,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8580,7 +8693,7 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8589,10 +8702,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8603,41 +8716,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8685,7 +8800,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8697,7 +8812,7 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8706,10 +8821,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>471</v>
+        <v>155</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8720,7 +8835,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8731,7 +8846,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8740,23 +8855,19 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8804,16 +8915,16 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>67</v>
@@ -8825,10 +8936,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8839,7 +8950,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8862,13 +8973,13 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>69</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>70</v>
+        <v>459</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8919,7 +9030,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8928,10 +9039,10 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8940,10 +9051,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8954,18 +9065,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8977,18 +9088,20 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9012,13 +9125,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9036,31 +9149,31 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9071,11 +9184,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9088,25 +9201,25 @@
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9131,13 +9244,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9155,7 +9268,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9167,19 +9280,19 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9190,7 +9303,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9198,7 +9311,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>55</v>
@@ -9210,22 +9323,20 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>219</v>
+        <v>481</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9250,13 +9361,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9274,10 +9385,10 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>55</v>
@@ -9292,16 +9403,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>225</v>
+        <v>482</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9309,7 +9420,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9329,23 +9440,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>488</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9393,7 +9500,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9411,24 +9518,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>294</v>
+        <v>486</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9439,7 +9546,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9448,23 +9555,21 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>488</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9488,13 +9593,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9512,16 +9617,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9533,10 +9638,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9547,18 +9652,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9567,23 +9672,21 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>204</v>
+        <v>495</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>351</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9607,13 +9710,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9631,7 +9734,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9649,24 +9752,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9677,7 +9780,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9686,22 +9789,22 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>410</v>
+        <v>504</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9750,7 +9853,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9771,20 +9874,966 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO68">
+  <autoFilter ref="A1:AO76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9794,7 +10843,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bloodSugarB.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bloodSugarB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="529">
   <si>
     <t>Path</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -4943,7 +4946,7 @@
         <v>231</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4958,16 +4961,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -5004,17 +5007,17 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -5035,10 +5038,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -5052,7 +5055,7 @@
         <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
@@ -5077,16 +5080,16 @@
         <v>109</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5096,7 +5099,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>45</v>
@@ -5135,7 +5138,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5156,10 +5159,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5173,7 +5176,7 @@
         <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
@@ -5198,16 +5201,16 @@
         <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5217,7 +5220,7 @@
         <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>45</v>
@@ -5256,7 +5259,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5277,10 +5280,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5294,14 +5297,14 @@
         <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>55</v>
@@ -5319,16 +5322,16 @@
         <v>109</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5338,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>45</v>
@@ -5377,7 +5380,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5398,10 +5401,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5415,14 +5418,14 @@
         <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>55</v>
@@ -5440,16 +5443,16 @@
         <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5459,7 +5462,7 @@
         <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>45</v>
@@ -5498,7 +5501,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5519,10 +5522,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5533,7 +5536,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5559,16 +5562,16 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5617,7 +5620,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5638,10 +5641,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5675,19 +5678,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5736,7 +5739,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5751,19 +5754,19 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5771,7 +5774,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5794,16 +5797,16 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5853,7 +5856,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5877,10 +5880,10 @@
         <v>224</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5888,11 +5891,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5911,19 +5914,19 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5972,7 +5975,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5987,19 +5990,19 @@
         <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6007,11 +6010,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6030,19 +6033,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6079,17 +6082,17 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6104,19 +6107,19 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6124,13 +6127,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6149,19 +6152,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6213,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6225,19 +6228,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,13 +6274,13 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6327,7 +6330,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6348,13 +6351,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6362,7 +6365,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6385,17 +6388,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6447,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6459,19 +6462,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6479,7 +6482,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6502,19 +6505,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6551,17 +6554,17 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6570,7 +6573,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6579,27 +6582,27 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
@@ -6621,19 +6624,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6682,7 +6685,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6691,7 +6694,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6700,24 +6703,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6832,7 +6835,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6949,7 +6952,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6972,19 +6975,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7033,7 +7036,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7054,10 +7057,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7068,7 +7071,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7094,20 +7097,20 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>45</v>
@@ -7131,10 +7134,10 @@
         <v>195</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7152,7 +7155,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7173,10 +7176,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7213,14 +7216,14 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7230,7 +7233,7 @@
         <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>45</v>
@@ -7269,7 +7272,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7290,10 +7293,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7304,7 +7307,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7330,14 +7333,14 @@
         <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7386,7 +7389,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7395,7 +7398,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7407,10 +7410,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7447,16 +7450,16 @@
         <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7505,7 +7508,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7526,10 +7529,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7566,16 +7569,16 @@
         <v>204</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7603,10 +7606,10 @@
         <v>113</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7624,7 +7627,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7633,7 +7636,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7648,7 +7651,7 @@
         <v>155</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7659,11 +7662,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7685,16 +7688,16 @@
         <v>204</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7722,10 +7725,10 @@
         <v>113</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7743,7 +7746,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7761,24 +7764,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7801,19 +7804,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7862,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7883,10 +7886,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7897,7 +7900,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7923,13 +7926,13 @@
         <v>204</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7958,10 +7961,10 @@
         <v>122</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7979,7 +7982,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7997,24 +8000,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8040,16 +8043,16 @@
         <v>204</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8078,7 +8081,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8096,7 +8099,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8117,10 +8120,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8131,7 +8134,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8154,16 +8157,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8213,7 +8216,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8231,24 +8234,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8271,16 +8274,16 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8330,7 +8333,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8348,24 +8351,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8388,19 +8391,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8449,7 +8452,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8461,7 +8464,7 @@
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8470,10 +8473,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8599,7 +8602,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8716,11 +8719,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8742,16 +8745,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8800,7 +8803,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8835,7 +8838,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8858,13 +8861,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8915,7 +8918,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8924,7 +8927,7 @@
         <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>67</v>
@@ -8936,10 +8939,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8950,7 +8953,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8973,13 +8976,13 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9030,7 +9033,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9039,7 +9042,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -9051,10 +9054,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9065,7 +9068,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9091,16 +9094,16 @@
         <v>204</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9128,10 +9131,10 @@
         <v>136</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9149,7 +9152,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9167,13 +9170,13 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9184,7 +9187,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9210,16 +9213,16 @@
         <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9247,10 +9250,10 @@
         <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9268,7 +9271,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9286,13 +9289,13 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9303,7 +9306,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9326,17 +9329,17 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9385,7 +9388,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9409,7 +9412,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9420,7 +9423,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9446,10 +9449,10 @@
         <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9500,7 +9503,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9521,10 +9524,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9535,7 +9538,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9558,16 +9561,16 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9617,7 +9620,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9638,10 +9641,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9652,7 +9655,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9675,16 +9678,16 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9734,7 +9737,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9755,10 +9758,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9769,7 +9772,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9792,19 +9795,19 @@
         <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9853,7 +9856,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9874,10 +9877,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9888,7 +9891,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10003,7 +10006,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10120,11 +10123,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10146,16 +10149,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10204,7 +10207,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10239,7 +10242,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10265,13 +10268,13 @@
         <v>204</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>219</v>
@@ -10323,7 +10326,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>55</v>
@@ -10341,7 +10344,7 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>224</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10381,19 +10384,19 @@
         <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10442,7 +10445,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10460,24 +10463,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10503,16 +10506,16 @@
         <v>204</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10540,10 +10543,10 @@
         <v>113</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10561,7 +10564,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10570,7 +10573,7 @@
         <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>67</v>
@@ -10585,7 +10588,7 @@
         <v>155</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10596,11 +10599,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10622,16 +10625,16 @@
         <v>204</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10659,10 +10662,10 @@
         <v>113</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10680,7 +10683,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10698,24 +10701,24 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10741,16 +10744,16 @@
         <v>45</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10799,7 +10802,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10820,10 +10823,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
